--- a/datas/planshet.xlsx
+++ b/datas/planshet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="obyekt" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="454">
   <si>
     <t>nomi</t>
   </si>
@@ -1500,7 +1500,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1539,6 +1539,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2068,8 +2069,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:E329787"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A604" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F620" sqref="F620"/>
+    <sheetView topLeftCell="A604" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F604" sqref="F604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50579,10 +50580,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист5"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50640,6 +50641,4086 @@
         <v>123123123</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>1703202</v>
+      </c>
+      <c r="B3" s="20">
+        <v>1703202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E3" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H3">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>1703203</v>
+      </c>
+      <c r="B4" s="20">
+        <v>1703203</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E4" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H4">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>1703206</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1703206</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E5" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H5">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>1703209</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1703209</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E6" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H6">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>1703210</v>
+      </c>
+      <c r="B7" s="20">
+        <v>1703210</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E7" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H7">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>1703211</v>
+      </c>
+      <c r="B8" s="20">
+        <v>1703211</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E8" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H8">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>1703214</v>
+      </c>
+      <c r="B9" s="20">
+        <v>1703214</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E9" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H9">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>1703217</v>
+      </c>
+      <c r="B10" s="20">
+        <v>1703217</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E10" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H10">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>1703220</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1703220</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E11" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H11">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>1703224</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1703224</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E12" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H12">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>1703227</v>
+      </c>
+      <c r="B13" s="20">
+        <v>1703227</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E13" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H13">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>1703230</v>
+      </c>
+      <c r="B14" s="20">
+        <v>1703230</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E14" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H14">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>1703232</v>
+      </c>
+      <c r="B15" s="20">
+        <v>1703232</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E15" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H15">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>1703236</v>
+      </c>
+      <c r="B16" s="20">
+        <v>1703236</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E16" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H16">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>1703401</v>
+      </c>
+      <c r="B17" s="20">
+        <v>1703401</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E17" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H17">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <v>1703408</v>
+      </c>
+      <c r="B18" s="20">
+        <v>1703408</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E18" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H18">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <v>1706204</v>
+      </c>
+      <c r="B19" s="20">
+        <v>1706204</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E19" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H19">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>1706207</v>
+      </c>
+      <c r="B20" s="20">
+        <v>1706207</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E20" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H20">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>1706212</v>
+      </c>
+      <c r="B21" s="20">
+        <v>1706212</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E21" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H21">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>1706215</v>
+      </c>
+      <c r="B22" s="20">
+        <v>1706215</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E22" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H22">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>1706219</v>
+      </c>
+      <c r="B23" s="20">
+        <v>1706219</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E23" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H23">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>1706230</v>
+      </c>
+      <c r="B24" s="20">
+        <v>1706230</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E24" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H24">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>1706232</v>
+      </c>
+      <c r="B25" s="20">
+        <v>1706232</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E25" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H25">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <v>1706240</v>
+      </c>
+      <c r="B26" s="20">
+        <v>1706240</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E26" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H26">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>1706242</v>
+      </c>
+      <c r="B27" s="20">
+        <v>1706242</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E27" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H27">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <v>1706246</v>
+      </c>
+      <c r="B28" s="20">
+        <v>1706246</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E28" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H28">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="20">
+        <v>1706258</v>
+      </c>
+      <c r="B29" s="20">
+        <v>1706258</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E29" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H29">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <v>1706401</v>
+      </c>
+      <c r="B30" s="20">
+        <v>1706401</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E30" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H30">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>1706403</v>
+      </c>
+      <c r="B31" s="20">
+        <v>1706403</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E31" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H31">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>1708201</v>
+      </c>
+      <c r="B32" s="20">
+        <v>1708201</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E32" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H32">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <v>1708204</v>
+      </c>
+      <c r="B33" s="20">
+        <v>1708204</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E33" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H33">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <v>1708209</v>
+      </c>
+      <c r="B34" s="20">
+        <v>1708209</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E34" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H34">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
+        <v>1708212</v>
+      </c>
+      <c r="B35" s="20">
+        <v>1708212</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E35" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H35">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
+        <v>1708215</v>
+      </c>
+      <c r="B36" s="20">
+        <v>1708215</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E36" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H36">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>1708218</v>
+      </c>
+      <c r="B37" s="20">
+        <v>1708218</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E37" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H37">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="20">
+        <v>1708220</v>
+      </c>
+      <c r="B38" s="20">
+        <v>1708220</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E38" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H38">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
+        <v>1708223</v>
+      </c>
+      <c r="B39" s="20">
+        <v>1708223</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E39" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H39">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
+        <v>1708225</v>
+      </c>
+      <c r="B40" s="20">
+        <v>1708225</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E40" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H40">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
+        <v>1708228</v>
+      </c>
+      <c r="B41" s="20">
+        <v>1708228</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E41" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H41">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
+        <v>1708235</v>
+      </c>
+      <c r="B42" s="20">
+        <v>1708235</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E42" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H42">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
+        <v>1708237</v>
+      </c>
+      <c r="B43" s="20">
+        <v>1708237</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E43" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H43">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
+        <v>1708401</v>
+      </c>
+      <c r="B44" s="20">
+        <v>1708401</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E44" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H44">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="20">
+        <v>1710207</v>
+      </c>
+      <c r="B45" s="20">
+        <v>1710207</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E45" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H45">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
+        <v>1710212</v>
+      </c>
+      <c r="B46" s="20">
+        <v>1710212</v>
+      </c>
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E46" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H46">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="20">
+        <v>1710220</v>
+      </c>
+      <c r="B47" s="20">
+        <v>1710220</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E47" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H47">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="20">
+        <v>1710224</v>
+      </c>
+      <c r="B48" s="20">
+        <v>1710224</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E48" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H48">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="20">
+        <v>1710229</v>
+      </c>
+      <c r="B49" s="20">
+        <v>1710229</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E49" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H49">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="20">
+        <v>1710232</v>
+      </c>
+      <c r="B50" s="20">
+        <v>1710232</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E50" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H50">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="20">
+        <v>1710233</v>
+      </c>
+      <c r="B51" s="20">
+        <v>1710233</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E51" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H51">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="20">
+        <v>1710234</v>
+      </c>
+      <c r="B52" s="20">
+        <v>1710234</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E52" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H52">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="20">
+        <v>1710235</v>
+      </c>
+      <c r="B53" s="20">
+        <v>1710235</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E53" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H53">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="20">
+        <v>1710237</v>
+      </c>
+      <c r="B54" s="20">
+        <v>1710237</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E54" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H54">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="20">
+        <v>1710242</v>
+      </c>
+      <c r="B55" s="20">
+        <v>1710242</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E55" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H55">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="20">
+        <v>1710245</v>
+      </c>
+      <c r="B56" s="20">
+        <v>1710245</v>
+      </c>
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E56" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H56">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="20">
+        <v>1710250</v>
+      </c>
+      <c r="B57" s="20">
+        <v>1710250</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E57" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H57">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="20">
+        <v>1710401</v>
+      </c>
+      <c r="B58" s="20">
+        <v>1710401</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E58" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H58">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="20">
+        <v>1710405</v>
+      </c>
+      <c r="B59" s="20">
+        <v>1710405</v>
+      </c>
+      <c r="C59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E59" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H59">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="20">
+        <v>1712211</v>
+      </c>
+      <c r="B60" s="20">
+        <v>1712211</v>
+      </c>
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E60" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H60">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="20">
+        <v>1712216</v>
+      </c>
+      <c r="B61" s="20">
+        <v>1712216</v>
+      </c>
+      <c r="C61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E61" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H61">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="20">
+        <v>1712230</v>
+      </c>
+      <c r="B62" s="20">
+        <v>1712230</v>
+      </c>
+      <c r="C62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E62" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H62">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="20">
+        <v>1712234</v>
+      </c>
+      <c r="B63" s="20">
+        <v>1712234</v>
+      </c>
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E63" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H63">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="20">
+        <v>1712238</v>
+      </c>
+      <c r="B64" s="20">
+        <v>1712238</v>
+      </c>
+      <c r="C64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E64" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H64">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="20">
+        <v>1712244</v>
+      </c>
+      <c r="B65" s="20">
+        <v>1712244</v>
+      </c>
+      <c r="C65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E65" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H65">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="20">
+        <v>1712248</v>
+      </c>
+      <c r="B66" s="20">
+        <v>1712248</v>
+      </c>
+      <c r="C66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E66" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H66">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="20">
+        <v>1712251</v>
+      </c>
+      <c r="B67" s="20">
+        <v>1712251</v>
+      </c>
+      <c r="C67" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E67" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H67">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="20">
+        <v>1712401</v>
+      </c>
+      <c r="B68" s="20">
+        <v>1712401</v>
+      </c>
+      <c r="C68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E68" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H68">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="20">
+        <v>1712408</v>
+      </c>
+      <c r="B69" s="20">
+        <v>1712408</v>
+      </c>
+      <c r="C69" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E69" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H69">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="20">
+        <v>1712412</v>
+      </c>
+      <c r="B70" s="20">
+        <v>1712412</v>
+      </c>
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E70" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H70">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="20">
+        <v>1714204</v>
+      </c>
+      <c r="B71" s="20">
+        <v>1714204</v>
+      </c>
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E71" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H71">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="20">
+        <v>1714207</v>
+      </c>
+      <c r="B72" s="20">
+        <v>1714207</v>
+      </c>
+      <c r="C72" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E72" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H72">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="20">
+        <v>1714212</v>
+      </c>
+      <c r="B73" s="20">
+        <v>1714212</v>
+      </c>
+      <c r="C73" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E73" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H73">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="20">
+        <v>1714216</v>
+      </c>
+      <c r="B74" s="20">
+        <v>1714216</v>
+      </c>
+      <c r="C74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E74" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H74">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="20">
+        <v>1714219</v>
+      </c>
+      <c r="B75" s="20">
+        <v>1714219</v>
+      </c>
+      <c r="C75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E75" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H75">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="20">
+        <v>1714224</v>
+      </c>
+      <c r="B76" s="20">
+        <v>1714224</v>
+      </c>
+      <c r="C76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E76" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H76">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="20">
+        <v>1714229</v>
+      </c>
+      <c r="B77" s="20">
+        <v>1714229</v>
+      </c>
+      <c r="C77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E77" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H77">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="20">
+        <v>1714234</v>
+      </c>
+      <c r="B78" s="20">
+        <v>1714234</v>
+      </c>
+      <c r="C78" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E78" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H78">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="20">
+        <v>1714236</v>
+      </c>
+      <c r="B79" s="20">
+        <v>1714236</v>
+      </c>
+      <c r="C79" t="s">
+        <v>42</v>
+      </c>
+      <c r="D79" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E79" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H79">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="20">
+        <v>1714237</v>
+      </c>
+      <c r="B80" s="20">
+        <v>1714237</v>
+      </c>
+      <c r="C80" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E80" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H80">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="20">
+        <v>1714242</v>
+      </c>
+      <c r="B81" s="20">
+        <v>1714242</v>
+      </c>
+      <c r="C81" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E81" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H81">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="20">
+        <v>1714401</v>
+      </c>
+      <c r="B82" s="20">
+        <v>1714401</v>
+      </c>
+      <c r="C82" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E82" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H82">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="20">
+        <v>1718203</v>
+      </c>
+      <c r="B83" s="20">
+        <v>1718203</v>
+      </c>
+      <c r="C83" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E83" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H83">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="20">
+        <v>1718206</v>
+      </c>
+      <c r="B84" s="20">
+        <v>1718206</v>
+      </c>
+      <c r="C84" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E84" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H84">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="20">
+        <v>1718209</v>
+      </c>
+      <c r="B85" s="20">
+        <v>1718209</v>
+      </c>
+      <c r="C85" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E85" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H85">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="20">
+        <v>1718212</v>
+      </c>
+      <c r="B86" s="20">
+        <v>1718212</v>
+      </c>
+      <c r="C86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D86" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E86" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H86">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="20">
+        <v>1718215</v>
+      </c>
+      <c r="B87" s="20">
+        <v>1718215</v>
+      </c>
+      <c r="C87" t="s">
+        <v>42</v>
+      </c>
+      <c r="D87" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E87" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H87">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="20">
+        <v>1718216</v>
+      </c>
+      <c r="B88" s="20">
+        <v>1718216</v>
+      </c>
+      <c r="C88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E88" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H88">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="20">
+        <v>1718218</v>
+      </c>
+      <c r="B89" s="20">
+        <v>1718218</v>
+      </c>
+      <c r="C89" t="s">
+        <v>42</v>
+      </c>
+      <c r="D89" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E89" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H89">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="20">
+        <v>1718224</v>
+      </c>
+      <c r="B90" s="20">
+        <v>1718224</v>
+      </c>
+      <c r="C90" t="s">
+        <v>42</v>
+      </c>
+      <c r="D90" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E90" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H90">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="20">
+        <v>1718227</v>
+      </c>
+      <c r="B91" s="20">
+        <v>1718227</v>
+      </c>
+      <c r="C91" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E91" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H91">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="20">
+        <v>1718230</v>
+      </c>
+      <c r="B92" s="20">
+        <v>1718230</v>
+      </c>
+      <c r="C92" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E92" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H92">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="20">
+        <v>1718233</v>
+      </c>
+      <c r="B93" s="20">
+        <v>1718233</v>
+      </c>
+      <c r="C93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E93" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H93">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="20">
+        <v>1718235</v>
+      </c>
+      <c r="B94" s="20">
+        <v>1718235</v>
+      </c>
+      <c r="C94" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E94" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H94">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="20">
+        <v>1718236</v>
+      </c>
+      <c r="B95" s="20">
+        <v>1718236</v>
+      </c>
+      <c r="C95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E95" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H95">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="20">
+        <v>1718238</v>
+      </c>
+      <c r="B96" s="20">
+        <v>1718238</v>
+      </c>
+      <c r="C96" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E96" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H96">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="20">
+        <v>1718401</v>
+      </c>
+      <c r="B97" s="20">
+        <v>1718401</v>
+      </c>
+      <c r="C97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E97" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H97">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="20">
+        <v>1718406</v>
+      </c>
+      <c r="B98" s="20">
+        <v>1718406</v>
+      </c>
+      <c r="C98" t="s">
+        <v>42</v>
+      </c>
+      <c r="D98" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E98" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H98">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="20">
+        <v>1722201</v>
+      </c>
+      <c r="B99" s="20">
+        <v>1722201</v>
+      </c>
+      <c r="C99" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E99" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H99">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="20">
+        <v>1722202</v>
+      </c>
+      <c r="B100" s="20">
+        <v>1722202</v>
+      </c>
+      <c r="C100" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E100" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H100">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="20">
+        <v>1722203</v>
+      </c>
+      <c r="B101" s="20">
+        <v>1722203</v>
+      </c>
+      <c r="C101" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E101" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H101">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="20">
+        <v>1722204</v>
+      </c>
+      <c r="B102" s="20">
+        <v>1722204</v>
+      </c>
+      <c r="C102" t="s">
+        <v>42</v>
+      </c>
+      <c r="D102" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E102" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H102">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="20">
+        <v>1722207</v>
+      </c>
+      <c r="B103" s="20">
+        <v>1722207</v>
+      </c>
+      <c r="C103" t="s">
+        <v>42</v>
+      </c>
+      <c r="D103" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E103" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H103">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="20">
+        <v>1722210</v>
+      </c>
+      <c r="B104" s="20">
+        <v>1722210</v>
+      </c>
+      <c r="C104" t="s">
+        <v>42</v>
+      </c>
+      <c r="D104" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E104" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H104">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="20">
+        <v>1722212</v>
+      </c>
+      <c r="B105" s="20">
+        <v>1722212</v>
+      </c>
+      <c r="C105" t="s">
+        <v>42</v>
+      </c>
+      <c r="D105" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E105" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H105">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="20">
+        <v>1722214</v>
+      </c>
+      <c r="B106" s="20">
+        <v>1722214</v>
+      </c>
+      <c r="C106" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E106" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H106">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="20">
+        <v>1722215</v>
+      </c>
+      <c r="B107" s="20">
+        <v>1722215</v>
+      </c>
+      <c r="C107" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E107" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H107">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="20">
+        <v>1722217</v>
+      </c>
+      <c r="B108" s="20">
+        <v>1722217</v>
+      </c>
+      <c r="C108" t="s">
+        <v>42</v>
+      </c>
+      <c r="D108" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E108" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H108">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="20">
+        <v>1722220</v>
+      </c>
+      <c r="B109" s="20">
+        <v>1722220</v>
+      </c>
+      <c r="C109" t="s">
+        <v>42</v>
+      </c>
+      <c r="D109" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E109" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H109">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="20">
+        <v>1722221</v>
+      </c>
+      <c r="B110" s="20">
+        <v>1722221</v>
+      </c>
+      <c r="C110" t="s">
+        <v>42</v>
+      </c>
+      <c r="D110" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E110" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H110">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="20">
+        <v>1722223</v>
+      </c>
+      <c r="B111" s="20">
+        <v>1722223</v>
+      </c>
+      <c r="C111" t="s">
+        <v>42</v>
+      </c>
+      <c r="D111" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E111" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H111">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="20">
+        <v>1722226</v>
+      </c>
+      <c r="B112" s="20">
+        <v>1722226</v>
+      </c>
+      <c r="C112" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E112" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H112">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="20">
+        <v>1722401</v>
+      </c>
+      <c r="B113" s="20">
+        <v>1722401</v>
+      </c>
+      <c r="C113" t="s">
+        <v>42</v>
+      </c>
+      <c r="D113" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E113" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H113">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="20">
+        <v>1724206</v>
+      </c>
+      <c r="B114" s="20">
+        <v>1724206</v>
+      </c>
+      <c r="C114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D114" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E114" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H114">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="20">
+        <v>1724212</v>
+      </c>
+      <c r="B115" s="20">
+        <v>1724212</v>
+      </c>
+      <c r="C115" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E115" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H115">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="20">
+        <v>1724216</v>
+      </c>
+      <c r="B116" s="20">
+        <v>1724216</v>
+      </c>
+      <c r="C116" t="s">
+        <v>42</v>
+      </c>
+      <c r="D116" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E116" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H116">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="20">
+        <v>1724220</v>
+      </c>
+      <c r="B117" s="20">
+        <v>1724220</v>
+      </c>
+      <c r="C117" t="s">
+        <v>42</v>
+      </c>
+      <c r="D117" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E117" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H117">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="20">
+        <v>1724226</v>
+      </c>
+      <c r="B118" s="20">
+        <v>1724226</v>
+      </c>
+      <c r="C118" t="s">
+        <v>42</v>
+      </c>
+      <c r="D118" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E118" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H118">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="20">
+        <v>1724228</v>
+      </c>
+      <c r="B119" s="20">
+        <v>1724228</v>
+      </c>
+      <c r="C119" t="s">
+        <v>42</v>
+      </c>
+      <c r="D119" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E119" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H119">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="20">
+        <v>1724231</v>
+      </c>
+      <c r="B120" s="20">
+        <v>1724231</v>
+      </c>
+      <c r="C120" t="s">
+        <v>42</v>
+      </c>
+      <c r="D120" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E120" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H120">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="20">
+        <v>1724235</v>
+      </c>
+      <c r="B121" s="20">
+        <v>1724235</v>
+      </c>
+      <c r="C121" t="s">
+        <v>42</v>
+      </c>
+      <c r="D121" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E121" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H121">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="20">
+        <v>1724401</v>
+      </c>
+      <c r="B122" s="20">
+        <v>1724401</v>
+      </c>
+      <c r="C122" t="s">
+        <v>42</v>
+      </c>
+      <c r="D122" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E122" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H122">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="20">
+        <v>1724410</v>
+      </c>
+      <c r="B123" s="20">
+        <v>1724410</v>
+      </c>
+      <c r="C123" t="s">
+        <v>42</v>
+      </c>
+      <c r="D123" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E123" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H123">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="20">
+        <v>1724413</v>
+      </c>
+      <c r="B124" s="20">
+        <v>1724413</v>
+      </c>
+      <c r="C124" t="s">
+        <v>42</v>
+      </c>
+      <c r="D124" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E124" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H124">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="20">
+        <v>1726262</v>
+      </c>
+      <c r="B125" s="20">
+        <v>1726262</v>
+      </c>
+      <c r="C125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D125" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E125" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H125">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="20">
+        <v>1726264</v>
+      </c>
+      <c r="B126" s="20">
+        <v>1726264</v>
+      </c>
+      <c r="C126" t="s">
+        <v>42</v>
+      </c>
+      <c r="D126" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E126" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H126">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="20">
+        <v>1726266</v>
+      </c>
+      <c r="B127" s="20">
+        <v>1726266</v>
+      </c>
+      <c r="C127" t="s">
+        <v>42</v>
+      </c>
+      <c r="D127" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E127" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H127">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="20">
+        <v>1726269</v>
+      </c>
+      <c r="B128" s="20">
+        <v>1726269</v>
+      </c>
+      <c r="C128" t="s">
+        <v>42</v>
+      </c>
+      <c r="D128" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E128" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H128">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="20">
+        <v>1726277</v>
+      </c>
+      <c r="B129" s="20">
+        <v>1726277</v>
+      </c>
+      <c r="C129" t="s">
+        <v>42</v>
+      </c>
+      <c r="D129" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E129" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H129">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="20">
+        <v>1726280</v>
+      </c>
+      <c r="B130" s="20">
+        <v>1726280</v>
+      </c>
+      <c r="C130" t="s">
+        <v>42</v>
+      </c>
+      <c r="D130" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E130" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H130">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="20">
+        <v>1726283</v>
+      </c>
+      <c r="B131" s="20">
+        <v>1726283</v>
+      </c>
+      <c r="C131" t="s">
+        <v>42</v>
+      </c>
+      <c r="D131" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E131" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H131">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="20">
+        <v>1726287</v>
+      </c>
+      <c r="B132" s="20">
+        <v>1726287</v>
+      </c>
+      <c r="C132" t="s">
+        <v>42</v>
+      </c>
+      <c r="D132" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E132" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H132">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="20">
+        <v>1726290</v>
+      </c>
+      <c r="B133" s="20">
+        <v>1726290</v>
+      </c>
+      <c r="C133" t="s">
+        <v>42</v>
+      </c>
+      <c r="D133" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E133" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H133">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="20">
+        <v>1726292</v>
+      </c>
+      <c r="B134" s="20">
+        <v>1726292</v>
+      </c>
+      <c r="C134" t="s">
+        <v>42</v>
+      </c>
+      <c r="D134" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E134" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H134">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="20">
+        <v>1726294</v>
+      </c>
+      <c r="B135" s="20">
+        <v>1726294</v>
+      </c>
+      <c r="C135" t="s">
+        <v>42</v>
+      </c>
+      <c r="D135" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E135" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H135">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="20">
+        <v>1727206</v>
+      </c>
+      <c r="B136" s="20">
+        <v>1727206</v>
+      </c>
+      <c r="C136" t="s">
+        <v>42</v>
+      </c>
+      <c r="D136" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E136" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H136">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="20">
+        <v>1727212</v>
+      </c>
+      <c r="B137" s="20">
+        <v>1727212</v>
+      </c>
+      <c r="C137" t="s">
+        <v>42</v>
+      </c>
+      <c r="D137" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E137" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H137">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="20">
+        <v>1727220</v>
+      </c>
+      <c r="B138" s="20">
+        <v>1727220</v>
+      </c>
+      <c r="C138" t="s">
+        <v>42</v>
+      </c>
+      <c r="D138" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E138" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H138">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="20">
+        <v>1727224</v>
+      </c>
+      <c r="B139" s="20">
+        <v>1727224</v>
+      </c>
+      <c r="C139" t="s">
+        <v>42</v>
+      </c>
+      <c r="D139" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E139" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H139">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="20">
+        <v>1727228</v>
+      </c>
+      <c r="B140" s="20">
+        <v>1727228</v>
+      </c>
+      <c r="C140" t="s">
+        <v>42</v>
+      </c>
+      <c r="D140" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E140" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H140">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="20">
+        <v>1727233</v>
+      </c>
+      <c r="B141" s="20">
+        <v>1727233</v>
+      </c>
+      <c r="C141" t="s">
+        <v>42</v>
+      </c>
+      <c r="D141" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E141" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H141">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="20">
+        <v>1727237</v>
+      </c>
+      <c r="B142" s="20">
+        <v>1727237</v>
+      </c>
+      <c r="C142" t="s">
+        <v>42</v>
+      </c>
+      <c r="D142" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E142" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H142">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="20">
+        <v>1727239</v>
+      </c>
+      <c r="B143" s="20">
+        <v>1727239</v>
+      </c>
+      <c r="C143" t="s">
+        <v>42</v>
+      </c>
+      <c r="D143" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E143" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H143">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="20">
+        <v>1727248</v>
+      </c>
+      <c r="B144" s="20">
+        <v>1727248</v>
+      </c>
+      <c r="C144" t="s">
+        <v>42</v>
+      </c>
+      <c r="D144" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E144" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H144">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="20">
+        <v>1727249</v>
+      </c>
+      <c r="B145" s="20">
+        <v>1727249</v>
+      </c>
+      <c r="C145" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E145" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H145">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="20">
+        <v>1727250</v>
+      </c>
+      <c r="B146" s="20">
+        <v>1727250</v>
+      </c>
+      <c r="C146" t="s">
+        <v>42</v>
+      </c>
+      <c r="D146" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E146" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H146">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="20">
+        <v>1727253</v>
+      </c>
+      <c r="B147" s="20">
+        <v>1727253</v>
+      </c>
+      <c r="C147" t="s">
+        <v>42</v>
+      </c>
+      <c r="D147" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E147" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H147">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="20">
+        <v>1727256</v>
+      </c>
+      <c r="B148" s="20">
+        <v>1727256</v>
+      </c>
+      <c r="C148" t="s">
+        <v>42</v>
+      </c>
+      <c r="D148" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E148" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H148">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="20">
+        <v>1727259</v>
+      </c>
+      <c r="B149" s="20">
+        <v>1727259</v>
+      </c>
+      <c r="C149" t="s">
+        <v>42</v>
+      </c>
+      <c r="D149" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E149" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H149">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="20">
+        <v>1727265</v>
+      </c>
+      <c r="B150" s="20">
+        <v>1727265</v>
+      </c>
+      <c r="C150" t="s">
+        <v>42</v>
+      </c>
+      <c r="D150" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E150" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H150">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="20">
+        <v>1727401</v>
+      </c>
+      <c r="B151" s="20">
+        <v>1727401</v>
+      </c>
+      <c r="C151" t="s">
+        <v>42</v>
+      </c>
+      <c r="D151" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E151" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H151">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="20">
+        <v>1727404</v>
+      </c>
+      <c r="B152" s="20">
+        <v>1727404</v>
+      </c>
+      <c r="C152" t="s">
+        <v>42</v>
+      </c>
+      <c r="D152" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E152" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H152">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="20">
+        <v>1727407</v>
+      </c>
+      <c r="B153" s="20">
+        <v>1727407</v>
+      </c>
+      <c r="C153" t="s">
+        <v>42</v>
+      </c>
+      <c r="D153" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E153" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H153">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="20">
+        <v>1727413</v>
+      </c>
+      <c r="B154" s="20">
+        <v>1727413</v>
+      </c>
+      <c r="C154" t="s">
+        <v>42</v>
+      </c>
+      <c r="D154" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E154" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H154">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="20">
+        <v>1727415</v>
+      </c>
+      <c r="B155" s="20">
+        <v>1727415</v>
+      </c>
+      <c r="C155" t="s">
+        <v>42</v>
+      </c>
+      <c r="D155" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E155" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H155">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="20">
+        <v>1727419</v>
+      </c>
+      <c r="B156" s="20">
+        <v>1727419</v>
+      </c>
+      <c r="C156" t="s">
+        <v>42</v>
+      </c>
+      <c r="D156" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E156" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H156">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="20">
+        <v>1727424</v>
+      </c>
+      <c r="B157" s="20">
+        <v>1727424</v>
+      </c>
+      <c r="C157" t="s">
+        <v>42</v>
+      </c>
+      <c r="D157" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E157" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H157">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="20">
+        <v>1730203</v>
+      </c>
+      <c r="B158" s="20">
+        <v>1730203</v>
+      </c>
+      <c r="C158" t="s">
+        <v>42</v>
+      </c>
+      <c r="D158" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E158" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H158">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="20">
+        <v>1730206</v>
+      </c>
+      <c r="B159" s="20">
+        <v>1730206</v>
+      </c>
+      <c r="C159" t="s">
+        <v>42</v>
+      </c>
+      <c r="D159" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E159" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H159">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="20">
+        <v>1730209</v>
+      </c>
+      <c r="B160" s="20">
+        <v>1730209</v>
+      </c>
+      <c r="C160" t="s">
+        <v>42</v>
+      </c>
+      <c r="D160" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E160" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H160">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="20">
+        <v>1730212</v>
+      </c>
+      <c r="B161" s="20">
+        <v>1730212</v>
+      </c>
+      <c r="C161" t="s">
+        <v>42</v>
+      </c>
+      <c r="D161" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E161" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H161">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="20">
+        <v>1730215</v>
+      </c>
+      <c r="B162" s="20">
+        <v>1730215</v>
+      </c>
+      <c r="C162" t="s">
+        <v>42</v>
+      </c>
+      <c r="D162" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E162" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H162">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="20">
+        <v>1730218</v>
+      </c>
+      <c r="B163" s="20">
+        <v>1730218</v>
+      </c>
+      <c r="C163" t="s">
+        <v>42</v>
+      </c>
+      <c r="D163" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E163" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H163">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="20">
+        <v>1730221</v>
+      </c>
+      <c r="B164" s="20">
+        <v>1730221</v>
+      </c>
+      <c r="C164" t="s">
+        <v>42</v>
+      </c>
+      <c r="D164" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E164" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H164">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="20">
+        <v>1730224</v>
+      </c>
+      <c r="B165" s="20">
+        <v>1730224</v>
+      </c>
+      <c r="C165" t="s">
+        <v>42</v>
+      </c>
+      <c r="D165" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E165" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H165">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="20">
+        <v>1730226</v>
+      </c>
+      <c r="B166" s="20">
+        <v>1730226</v>
+      </c>
+      <c r="C166" t="s">
+        <v>42</v>
+      </c>
+      <c r="D166" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E166" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H166">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="20">
+        <v>1730227</v>
+      </c>
+      <c r="B167" s="20">
+        <v>1730227</v>
+      </c>
+      <c r="C167" t="s">
+        <v>42</v>
+      </c>
+      <c r="D167" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E167" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H167">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="20">
+        <v>1730230</v>
+      </c>
+      <c r="B168" s="20">
+        <v>1730230</v>
+      </c>
+      <c r="C168" t="s">
+        <v>42</v>
+      </c>
+      <c r="D168" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E168" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H168">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="20">
+        <v>1730233</v>
+      </c>
+      <c r="B169" s="20">
+        <v>1730233</v>
+      </c>
+      <c r="C169" t="s">
+        <v>42</v>
+      </c>
+      <c r="D169" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E169" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H169">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="20">
+        <v>1730236</v>
+      </c>
+      <c r="B170" s="20">
+        <v>1730236</v>
+      </c>
+      <c r="C170" t="s">
+        <v>42</v>
+      </c>
+      <c r="D170" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E170" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H170">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="20">
+        <v>1730238</v>
+      </c>
+      <c r="B171" s="20">
+        <v>1730238</v>
+      </c>
+      <c r="C171" t="s">
+        <v>42</v>
+      </c>
+      <c r="D171" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E171" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H171">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="20">
+        <v>1730242</v>
+      </c>
+      <c r="B172" s="20">
+        <v>1730242</v>
+      </c>
+      <c r="C172" t="s">
+        <v>42</v>
+      </c>
+      <c r="D172" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E172" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H172">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="20">
+        <v>1730401</v>
+      </c>
+      <c r="B173" s="20">
+        <v>1730401</v>
+      </c>
+      <c r="C173" t="s">
+        <v>42</v>
+      </c>
+      <c r="D173" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E173" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H173">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="20">
+        <v>1730405</v>
+      </c>
+      <c r="B174" s="20">
+        <v>1730405</v>
+      </c>
+      <c r="C174" t="s">
+        <v>42</v>
+      </c>
+      <c r="D174" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E174" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H174">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="20">
+        <v>1730408</v>
+      </c>
+      <c r="B175" s="20">
+        <v>1730408</v>
+      </c>
+      <c r="C175" t="s">
+        <v>42</v>
+      </c>
+      <c r="D175" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E175" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H175">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="20">
+        <v>1730412</v>
+      </c>
+      <c r="B176" s="20">
+        <v>1730412</v>
+      </c>
+      <c r="C176" t="s">
+        <v>42</v>
+      </c>
+      <c r="D176" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E176" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H176">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="20">
+        <v>1733204</v>
+      </c>
+      <c r="B177" s="20">
+        <v>1733204</v>
+      </c>
+      <c r="C177" t="s">
+        <v>42</v>
+      </c>
+      <c r="D177" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E177" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H177">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="20">
+        <v>1733208</v>
+      </c>
+      <c r="B178" s="20">
+        <v>1733208</v>
+      </c>
+      <c r="C178" t="s">
+        <v>42</v>
+      </c>
+      <c r="D178" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E178" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H178">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="20">
+        <v>1733212</v>
+      </c>
+      <c r="B179" s="20">
+        <v>1733212</v>
+      </c>
+      <c r="C179" t="s">
+        <v>42</v>
+      </c>
+      <c r="D179" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E179" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H179">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="20">
+        <v>1733217</v>
+      </c>
+      <c r="B180" s="20">
+        <v>1733217</v>
+      </c>
+      <c r="C180" t="s">
+        <v>42</v>
+      </c>
+      <c r="D180" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E180" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H180">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="20">
+        <v>1733220</v>
+      </c>
+      <c r="B181" s="20">
+        <v>1733220</v>
+      </c>
+      <c r="C181" t="s">
+        <v>42</v>
+      </c>
+      <c r="D181" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E181" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H181">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="20">
+        <v>1733221</v>
+      </c>
+      <c r="B182" s="20">
+        <v>1733221</v>
+      </c>
+      <c r="C182" t="s">
+        <v>42</v>
+      </c>
+      <c r="D182" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E182" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H182">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="20">
+        <v>1733223</v>
+      </c>
+      <c r="B183" s="20">
+        <v>1733223</v>
+      </c>
+      <c r="C183" t="s">
+        <v>42</v>
+      </c>
+      <c r="D183" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E183" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H183">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="20">
+        <v>1733226</v>
+      </c>
+      <c r="B184" s="20">
+        <v>1733226</v>
+      </c>
+      <c r="C184" t="s">
+        <v>42</v>
+      </c>
+      <c r="D184" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E184" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H184">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="20">
+        <v>1733230</v>
+      </c>
+      <c r="B185" s="20">
+        <v>1733230</v>
+      </c>
+      <c r="C185" t="s">
+        <v>42</v>
+      </c>
+      <c r="D185" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E185" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H185">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="20">
+        <v>1733233</v>
+      </c>
+      <c r="B186" s="20">
+        <v>1733233</v>
+      </c>
+      <c r="C186" t="s">
+        <v>42</v>
+      </c>
+      <c r="D186" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E186" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H186">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="20">
+        <v>1733236</v>
+      </c>
+      <c r="B187" s="20">
+        <v>1733236</v>
+      </c>
+      <c r="C187" t="s">
+        <v>42</v>
+      </c>
+      <c r="D187" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E187" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H187">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="20">
+        <v>1733401</v>
+      </c>
+      <c r="B188" s="20">
+        <v>1733401</v>
+      </c>
+      <c r="C188" t="s">
+        <v>42</v>
+      </c>
+      <c r="D188" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E188" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H188">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="20">
+        <v>1733406</v>
+      </c>
+      <c r="B189" s="20">
+        <v>1733406</v>
+      </c>
+      <c r="C189" t="s">
+        <v>42</v>
+      </c>
+      <c r="D189" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E189" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H189">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="20">
+        <v>1735204</v>
+      </c>
+      <c r="B190" s="20">
+        <v>1735204</v>
+      </c>
+      <c r="C190" t="s">
+        <v>42</v>
+      </c>
+      <c r="D190" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E190" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H190">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="20">
+        <v>1735207</v>
+      </c>
+      <c r="B191" s="20">
+        <v>1735207</v>
+      </c>
+      <c r="C191" t="s">
+        <v>42</v>
+      </c>
+      <c r="D191" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E191" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H191">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="20">
+        <v>1735209</v>
+      </c>
+      <c r="B192" s="20">
+        <v>1735209</v>
+      </c>
+      <c r="C192" t="s">
+        <v>42</v>
+      </c>
+      <c r="D192" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E192" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H192">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="20">
+        <v>1735211</v>
+      </c>
+      <c r="B193" s="20">
+        <v>1735211</v>
+      </c>
+      <c r="C193" t="s">
+        <v>42</v>
+      </c>
+      <c r="D193" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E193" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H193">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="20">
+        <v>1735212</v>
+      </c>
+      <c r="B194" s="20">
+        <v>1735212</v>
+      </c>
+      <c r="C194" t="s">
+        <v>42</v>
+      </c>
+      <c r="D194" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E194" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H194">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="20">
+        <v>1735215</v>
+      </c>
+      <c r="B195" s="20">
+        <v>1735215</v>
+      </c>
+      <c r="C195" t="s">
+        <v>42</v>
+      </c>
+      <c r="D195" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E195" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H195">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="20">
+        <v>1735218</v>
+      </c>
+      <c r="B196" s="20">
+        <v>1735218</v>
+      </c>
+      <c r="C196" t="s">
+        <v>42</v>
+      </c>
+      <c r="D196" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E196" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H196">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="20">
+        <v>1735222</v>
+      </c>
+      <c r="B197" s="20">
+        <v>1735222</v>
+      </c>
+      <c r="C197" t="s">
+        <v>42</v>
+      </c>
+      <c r="D197" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E197" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H197">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="20">
+        <v>1735225</v>
+      </c>
+      <c r="B198" s="20">
+        <v>1735225</v>
+      </c>
+      <c r="C198" t="s">
+        <v>42</v>
+      </c>
+      <c r="D198" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E198" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H198">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="20">
+        <v>1735228</v>
+      </c>
+      <c r="B199" s="20">
+        <v>1735228</v>
+      </c>
+      <c r="C199" t="s">
+        <v>42</v>
+      </c>
+      <c r="D199" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E199" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H199">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="20">
+        <v>1735230</v>
+      </c>
+      <c r="B200" s="20">
+        <v>1735230</v>
+      </c>
+      <c r="C200" t="s">
+        <v>42</v>
+      </c>
+      <c r="D200" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E200" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H200">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="20">
+        <v>1735233</v>
+      </c>
+      <c r="B201" s="20">
+        <v>1735233</v>
+      </c>
+      <c r="C201" t="s">
+        <v>42</v>
+      </c>
+      <c r="D201" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E201" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H201">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="20">
+        <v>1735236</v>
+      </c>
+      <c r="B202" s="20">
+        <v>1735236</v>
+      </c>
+      <c r="C202" t="s">
+        <v>42</v>
+      </c>
+      <c r="D202" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E202" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H202">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="20">
+        <v>1735240</v>
+      </c>
+      <c r="B203" s="20">
+        <v>1735240</v>
+      </c>
+      <c r="C203" t="s">
+        <v>42</v>
+      </c>
+      <c r="D203" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E203" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H203">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="20">
+        <v>1735243</v>
+      </c>
+      <c r="B204" s="20">
+        <v>1735243</v>
+      </c>
+      <c r="C204" t="s">
+        <v>42</v>
+      </c>
+      <c r="D204" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E204" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H204">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="20">
+        <v>1735250</v>
+      </c>
+      <c r="B205" s="20">
+        <v>1735250</v>
+      </c>
+      <c r="C205" t="s">
+        <v>42</v>
+      </c>
+      <c r="D205" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E205" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H205">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="20">
+        <v>1735401</v>
+      </c>
+      <c r="B206" s="20">
+        <v>1735401</v>
+      </c>
+      <c r="C206" t="s">
+        <v>42</v>
+      </c>
+      <c r="D206" s="8">
+        <v>32404986770027</v>
+      </c>
+      <c r="E206" s="8">
+        <v>998942197545</v>
+      </c>
+      <c r="H206">
+        <v>123123123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
